--- a/Data Files/data.xlsx
+++ b/Data Files/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jalu/git/tugas/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5019FAE9-695F-9346-8001-E3059306AE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DA73AF-3D77-954F-B24A-469C1E0E4EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16380" xr2:uid="{362DA690-2ACD-1F40-AAB4-17F75064D897}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16360" xr2:uid="{362DA690-2ACD-1F40-AAB4-17F75064D897}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
   <si>
     <t>username</t>
   </si>
@@ -129,6 +129,21 @@
   </si>
   <si>
     <t>jalu1@gmail.com</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>indonesia</t>
+  </si>
+  <si>
+    <t>malaysia</t>
+  </si>
+  <si>
+    <t>iran</t>
+  </si>
+  <si>
+    <t>israel</t>
   </si>
 </sst>
 </file>
@@ -492,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3CD81D9-C070-A341-87A2-AD5CC898B1AB}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -505,7 +520,7 @@
     <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,8 +554,11 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -574,8 +592,11 @@
       <c r="K2">
         <v>12345</v>
       </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -609,8 +630,11 @@
       <c r="K3">
         <v>12345</v>
       </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -644,8 +668,11 @@
       <c r="K4">
         <v>12345</v>
       </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -679,8 +706,11 @@
       <c r="K5">
         <v>12345</v>
       </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -713,6 +743,9 @@
       </c>
       <c r="K6">
         <v>12345</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/data.xlsx
+++ b/Data Files/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jalu/git/tugas/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DA73AF-3D77-954F-B24A-469C1E0E4EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A4F64C-E427-F14B-BD65-57369236EA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16360" xr2:uid="{362DA690-2ACD-1F40-AAB4-17F75064D897}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>username</t>
   </si>
@@ -47,9 +47,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>confirm password</t>
-  </si>
-  <si>
     <t>firstname</t>
   </si>
   <si>
@@ -71,15 +68,6 @@
     <t>postal</t>
   </si>
   <si>
-    <t>jalu2</t>
-  </si>
-  <si>
-    <t>Testing2</t>
-  </si>
-  <si>
-    <t>jalu2@gmail.com</t>
-  </si>
-  <si>
     <t>jalu</t>
   </si>
   <si>
@@ -122,28 +110,19 @@
     <t>jalu5@gmail.com</t>
   </si>
   <si>
-    <t>jalu1</t>
-  </si>
-  <si>
-    <t>Testing1</t>
-  </si>
-  <si>
-    <t>jalu1@gmail.com</t>
-  </si>
-  <si>
     <t>country</t>
   </si>
   <si>
     <t>indonesia</t>
   </si>
   <si>
-    <t>malaysia</t>
-  </si>
-  <si>
     <t>iran</t>
   </si>
   <si>
     <t>israel</t>
+  </si>
+  <si>
+    <t>confirm_password</t>
   </si>
 </sst>
 </file>
@@ -507,15 +486,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3CD81D9-C070-A341-87A2-AD5CC898B1AB}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -528,233 +507,155 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
       <c r="L1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K2">
         <v>12345</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K3">
         <v>12345</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K4">
         <v>12345</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5">
-        <v>12345</v>
-      </c>
-      <c r="L5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6">
-        <v>12345</v>
-      </c>
-      <c r="L6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{961AA1DD-2EF4-D34B-B9F7-16E31085808C}"/>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{356CBF25-F265-E345-B4FD-EBB53486D087}"/>
-    <hyperlink ref="D6" r:id="rId3" xr:uid="{E64302C4-0D09-D94C-BC54-B37415A5C809}"/>
-    <hyperlink ref="D4" r:id="rId4" xr:uid="{55D36B65-4024-AD4C-B390-880A15836805}"/>
-    <hyperlink ref="D2" r:id="rId5" xr:uid="{72FEF65E-DBC9-1548-873B-901D5851B353}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{356CBF25-F265-E345-B4FD-EBB53486D087}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{E64302C4-0D09-D94C-BC54-B37415A5C809}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{55D36B65-4024-AD4C-B390-880A15836805}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
